--- a/data/05_input/zm.ca19a4.xlsx
+++ b/data/05_input/zm.ca19a4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/7E77EE53-9F15-4E1F-985B-F9CE134A1329/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/08_sra_list_x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/1D66CD94-39B1-4D9F-8E3F-472F4AA6C393/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCEF963-215B-534F-96DC-55535EA8CF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B471E0-8CB6-9946-AD59-DD9BACE5EDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="1360" windowWidth="17280" windowHeight="19640" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="121">
   <si>
     <t>SampleID</t>
   </si>
@@ -265,16 +265,145 @@
   </si>
   <si>
     <t>antibody</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>s27</t>
+  </si>
+  <si>
+    <t>s28</t>
+  </si>
+  <si>
+    <t>s29</t>
+  </si>
+  <si>
+    <t>s30</t>
+  </si>
+  <si>
+    <t>s31</t>
+  </si>
+  <si>
+    <t>s32</t>
+  </si>
+  <si>
+    <t>s33</t>
+  </si>
+  <si>
+    <t>s34</t>
+  </si>
+  <si>
+    <t>s35</t>
+  </si>
+  <si>
+    <t>s36</t>
+  </si>
+  <si>
+    <t>s37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -616,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,7 +759,7 @@
     <col min="5" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,10 +793,19 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -684,8 +822,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>83</v>
       </c>
       <c r="J2">
         <v>10785815</v>
@@ -693,10 +831,13 @@
       <c r="K2">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -713,8 +854,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>83</v>
       </c>
       <c r="J3">
         <v>10802484</v>
@@ -722,10 +863,13 @@
       <c r="K3">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
@@ -742,8 +886,8 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>83</v>
       </c>
       <c r="J4">
         <v>10352176</v>
@@ -751,10 +895,13 @@
       <c r="K4">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -771,8 +918,8 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>83</v>
       </c>
       <c r="J5">
         <v>16847447</v>
@@ -780,10 +927,13 @@
       <c r="K5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -800,8 +950,8 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="s">
+        <v>83</v>
       </c>
       <c r="J6">
         <v>14443498</v>
@@ -809,10 +959,13 @@
       <c r="K6">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -829,8 +982,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="s">
+        <v>83</v>
       </c>
       <c r="J7">
         <v>16923907</v>
@@ -838,10 +991,13 @@
       <c r="K7">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -858,8 +1014,8 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>83</v>
       </c>
       <c r="J8">
         <v>7586773</v>
@@ -867,10 +1023,13 @@
       <c r="K8">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -887,8 +1046,8 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>83</v>
       </c>
       <c r="J9">
         <v>12206223</v>
@@ -896,10 +1055,13 @@
       <c r="K9">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -916,8 +1078,8 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>83</v>
       </c>
       <c r="J10">
         <v>18360362</v>
@@ -925,10 +1087,13 @@
       <c r="K10">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -945,8 +1110,8 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>83</v>
       </c>
       <c r="J11">
         <v>8955343</v>
@@ -954,10 +1119,13 @@
       <c r="K11">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -974,8 +1142,8 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>83</v>
       </c>
       <c r="J12">
         <v>5132154</v>
@@ -983,10 +1151,13 @@
       <c r="K12">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -1003,8 +1174,8 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>83</v>
       </c>
       <c r="J13">
         <v>9081020</v>
@@ -1012,10 +1183,13 @@
       <c r="K13">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1032,8 +1206,8 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>83</v>
       </c>
       <c r="J14">
         <v>10582357</v>
@@ -1041,10 +1215,13 @@
       <c r="K14">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -1061,8 +1238,8 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="s">
+        <v>83</v>
       </c>
       <c r="J15">
         <v>4669689</v>
@@ -1070,10 +1247,13 @@
       <c r="K15">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -1090,8 +1270,8 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="s">
+        <v>83</v>
       </c>
       <c r="J16">
         <v>10465551</v>
@@ -1099,10 +1279,13 @@
       <c r="K16">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
@@ -1119,8 +1302,8 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="s">
+        <v>83</v>
       </c>
       <c r="J17">
         <v>11029949</v>
@@ -1128,10 +1311,13 @@
       <c r="K17">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
@@ -1148,8 +1334,8 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="I18" t="s">
+        <v>83</v>
       </c>
       <c r="J18">
         <v>23416223</v>
@@ -1157,10 +1343,13 @@
       <c r="K18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -1177,8 +1366,8 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="I19" t="s">
+        <v>83</v>
       </c>
       <c r="J19">
         <v>23633639</v>
@@ -1186,10 +1375,13 @@
       <c r="K19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -1206,8 +1398,8 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="I20" t="s">
+        <v>83</v>
       </c>
       <c r="J20">
         <v>24149450</v>
@@ -1215,10 +1407,13 @@
       <c r="K20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
@@ -1235,8 +1430,8 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="I21" t="s">
+        <v>83</v>
       </c>
       <c r="J21">
         <v>13364988</v>
@@ -1244,10 +1439,13 @@
       <c r="K21">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -1264,8 +1462,8 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="I22" t="s">
+        <v>83</v>
       </c>
       <c r="J22">
         <v>13844087</v>
@@ -1273,10 +1471,13 @@
       <c r="K22">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -1293,8 +1494,8 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="I23" t="s">
+        <v>83</v>
       </c>
       <c r="J23">
         <v>62039954</v>
@@ -1302,10 +1503,13 @@
       <c r="K23">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
         <v>63</v>
@@ -1316,8 +1520,8 @@
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="I24" t="s">
+        <v>83</v>
       </c>
       <c r="J24">
         <v>27640102</v>
@@ -1325,10 +1529,13 @@
       <c r="K24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
         <v>64</v>
@@ -1345,8 +1552,8 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="I25" t="s">
+        <v>83</v>
       </c>
       <c r="J25">
         <v>12949888</v>
@@ -1354,10 +1561,13 @@
       <c r="K25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
@@ -1374,8 +1584,8 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="I26" t="s">
+        <v>83</v>
       </c>
       <c r="J26">
         <v>20233070</v>
@@ -1383,10 +1593,13 @@
       <c r="K26">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>
@@ -1403,8 +1616,8 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="I27" t="s">
+        <v>83</v>
       </c>
       <c r="J27">
         <v>18838361</v>
@@ -1412,10 +1625,13 @@
       <c r="K27">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>
@@ -1432,8 +1648,8 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="I28" t="s">
+        <v>83</v>
       </c>
       <c r="J28">
         <v>13082237</v>
@@ -1441,10 +1657,13 @@
       <c r="K28">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
@@ -1461,8 +1680,8 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="I29" t="s">
+        <v>83</v>
       </c>
       <c r="J29">
         <v>40294472</v>
@@ -1470,10 +1689,13 @@
       <c r="K29">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1490,8 +1712,8 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="I30" t="s">
+        <v>83</v>
       </c>
       <c r="J30">
         <v>40746798</v>
@@ -1499,10 +1721,13 @@
       <c r="K30">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
         <v>70</v>
@@ -1519,8 +1744,8 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>83</v>
       </c>
       <c r="J31">
         <v>25473798</v>
@@ -1528,10 +1753,13 @@
       <c r="K31">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
         <v>71</v>
@@ -1548,8 +1776,8 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="I32" t="s">
+        <v>83</v>
       </c>
       <c r="J32">
         <v>48659869</v>
@@ -1557,10 +1785,13 @@
       <c r="K32">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>72</v>
@@ -1577,8 +1808,8 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="I33" t="s">
+        <v>83</v>
       </c>
       <c r="J33">
         <v>14410671</v>
@@ -1586,10 +1817,13 @@
       <c r="K33">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
@@ -1606,8 +1840,8 @@
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="I34" t="s">
+        <v>83</v>
       </c>
       <c r="J34">
         <v>28371502</v>
@@ -1615,10 +1849,13 @@
       <c r="K34">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
         <v>74</v>
@@ -1635,8 +1872,8 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="I35" t="s">
+        <v>83</v>
       </c>
       <c r="J35">
         <v>28551131</v>
@@ -1644,10 +1881,13 @@
       <c r="K35">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
@@ -1664,8 +1904,8 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="I36" t="s">
+        <v>83</v>
       </c>
       <c r="J36">
         <v>14159612</v>
@@ -1673,10 +1913,13 @@
       <c r="K36">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>76</v>
@@ -1693,8 +1936,8 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="I37" t="s">
+        <v>83</v>
       </c>
       <c r="J37">
         <v>24930195</v>
@@ -1702,10 +1945,13 @@
       <c r="K37">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
         <v>77</v>
@@ -1722,8 +1968,8 @@
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="I38" t="s">
+        <v>83</v>
       </c>
       <c r="J38">
         <v>18121991</v>
@@ -1731,8 +1977,12 @@
       <c r="K38">
         <v>76</v>
       </c>
+      <c r="L38" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>